--- a/Packages/cn.etetet.wow/Assets/Editor/Luban/Old/UnitConfig.xlsx
+++ b/Packages/cn.etetet.wow/Assets/Editor/Luban/Old/UnitConfig.xlsx
@@ -142,8 +142,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -169,6 +169,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -177,6 +215,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,16 +236,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -220,24 +258,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,14 +274,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -267,8 +281,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -288,36 +318,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -334,19 +334,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,13 +478,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -376,145 +514,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,6 +533,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -577,21 +592,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -628,148 +628,148 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1142,7 +1142,7 @@
   <dimension ref="C1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1460,7 +1460,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="3:19">
+    <row r="7" s="1" customFormat="1" ht="12.4" spans="3:19">
       <c r="C7" s="1">
         <v>1002</v>
       </c>
@@ -1514,7 +1514,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="3:19">
+    <row r="8" s="1" customFormat="1" ht="12.4" spans="3:19">
       <c r="C8" s="1">
         <v>1003</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="3:19">
+    <row r="9" s="1" customFormat="1" ht="12.4" spans="3:19">
       <c r="C9" s="1">
         <v>1004</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1" spans="3:19">
+    <row r="10" s="1" customFormat="1" ht="12.4" spans="3:19">
       <c r="C10" s="1">
         <v>1005</v>
       </c>
@@ -1676,7 +1676,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" s="1" customFormat="1" spans="3:19">
+    <row r="11" s="1" customFormat="1" ht="12.4" spans="3:19">
       <c r="C11" s="1">
         <v>1006</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" s="1" customFormat="1" spans="3:19">
+    <row r="12" s="1" customFormat="1" ht="12.4" spans="3:19">
       <c r="C12" s="1">
         <v>1007</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" s="1" customFormat="1" spans="3:19">
+    <row r="13" s="1" customFormat="1" ht="12.4" spans="3:19">
       <c r="C13" s="1">
         <v>1008</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" s="1" customFormat="1" spans="3:19">
+    <row r="14" s="1" customFormat="1" ht="12.4" spans="3:19">
       <c r="C14" s="1">
         <v>1009</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="3:19">
+    <row r="15" s="1" customFormat="1" ht="12.4" spans="3:19">
       <c r="C15" s="1">
         <v>1010</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" s="1" customFormat="1" spans="3:19">
+    <row r="16" s="1" customFormat="1" ht="12.4" spans="3:19">
       <c r="C16" s="1">
         <v>1011</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" s="1" customFormat="1" spans="3:19">
+    <row r="17" s="1" customFormat="1" ht="12.4" spans="3:19">
       <c r="C17" s="1">
         <v>1012</v>
       </c>
